--- a/biology/Neurosciences/Neurodon/Neurodon.xlsx
+++ b/biology/Neurosciences/Neurodon/Neurodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neurodon est une campagne de soutien à la recherche sur le cerveau et les maladies neurologiques.
 Organisée par la Fédération pour la recherche sur le cerveau (FRC), le Neurodon est une opération nationale de collecte fonds pour soutenir la recherche contre les maladies et les handicaps neurologiques : maladies neurodégénératives (Alzheimer, Parkinson, Creutzfeldt-Jakob, Huntington, sclérose en plaques, atrophie corticale postérieure , etc.), dépression, épilepsie, infirmités motrices cérébrales (IMC) résultant de lésions cérébrales précoces.
@@ -513,7 +525,9 @@
           <t>Le Neurodon, une initiative récente de la FRC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Neurodon est né en 2000, lancé par la FRC en partenariat avec la Société des neurosciences. Selon la FRC, 7,9 millions d'euros ont été attribués depuis sa création à plus de 200 programmes de recherche en neurosciences.
 Avec un constat : l'importance d'agir pour pallier les difficultés de financement de la recherche. 1 personne sur 10 souffre d'une maladie et/ou d'un handicap d'origine neurologique.
@@ -546,7 +560,9 @@
           <t>Le Neurodon, une campagne pour découvrir les moyens de guérir le cerveau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, aucune des maladies pré-citées (Parkinson, Alzheimer, épilepsie) n'est complètement curable.
 Certaines d'entre elles peuvent être contenues avec des symptômes contrôlés et/ou une évolution ralentie, mais aucune ne peut être guérie à proprement parler.
@@ -581,7 +597,9 @@
           <t>Campagne du Neurodon 2009</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La campagne du Neurodon a eu lieu du 9 au 15 mars 2009, elle a mis l'accent sur le thème de l'apprentissage. Il s'agit de sensibiliser le public aux problèmes des maladies du cerveau en rappelant notamment que de nombreuses pathologies de l'apprentissage, comme la dyslexie ou la dyspraxie, sont des maladies du cerveau.
 </t>
@@ -612,7 +630,9 @@
           <t>Campagne du Neurodon 2010</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a eu lieu du 8 au 14 mars. La Fédération pour la recherche sur le cerveau (FRC) espère dépasser les 10 millions d'euros de financements en 2010.
 À l'occasion de cette 10e campagne, la FRC a lancé le numéro « 3620 Neurodon » pour inciter le public à financer la recherche en neurosciences. 
@@ -647,7 +667,9 @@
           <t>Campagne du Neurodon 2011</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a eu lieu du 21 au 27 mars. La Fédération pour la recherche sur le cerveau (FRC) a atteint son objectif avec plus de 11 millions d'euros de financements attribués à fin 2011.
 À l'occasion de cette 11e campagne, la FRC a sensibilisé le public aux liens entre « sport et santé » en organisant sa conférence de presse au siège du Comité national olympique et sportif français (CNOSF) avec lequel elle a mis en place un partenariat. Plusieurs randonnées rollers « Tous à rollers avec le neurodon » se sont déroulées au cours de l'année en partenariat avec LCL, la Fédération française de rollers et les associations Rollers &amp; Coquillages, Air Roller, RollerinMontpellier, Roulez Rose et le Roller Club de Martigues. Dix randonnées rollers sont prévues pour 2012. La FRC a mis en place quatre correspondants bénévoles en régions (Aquitaine, Béarn, Toulouse et Bretagne Nord) et prévoit de doubler leur nombre pour 2012. Plus de six cents bénévoles ont participé à la collecte dans les magasins Carrefour.
@@ -679,7 +701,9 @@
           <t>Campagne du Neurodon 2012</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle s'est déroulée du 5 au 10 mars, et a été suivie de la collecte dans les magasins Carrefour, du 12 au 18 mars. Le thème de cette année était « addictions et dépendances : peut-on parler de nouvelles addictions ? ». La FRC a mis en place à cette occasion des partenariats avec le Centre de Référence du Jeu Excessif (CRJE), le Centre d'Enseignement, de Recherche et de Traitement des Addictions (CERTA), la Fédération Addiction et le Réseau de Prévention des Addictions (RESPADD). Elle a conçu et édité un guide : « quand mon cerveau devient accro », et un memo pocket « addictions: attention ! » à destination de tous les publics. Elle a inauguré le 5 mars son blog, le « neuroblog » sur lequel les internautes pourront chaque jour de la campagne poser leurs questions en direct à un chercheur spécialisé : http://neuroblog.fr/
 On pouvait voir sur les écrans de télévision et sur internet son clip « Echecs ».
